--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ldlr</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H2">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I2">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J2">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N2">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q2">
-        <v>13.09757087531275</v>
+        <v>13.64514687574</v>
       </c>
       <c r="R2">
-        <v>13.09757087531275</v>
+        <v>122.80632188166</v>
       </c>
       <c r="S2">
-        <v>0.07032013418927348</v>
+        <v>0.06222227674435259</v>
       </c>
       <c r="T2">
-        <v>0.07032013418927348</v>
+        <v>0.06222227674435261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H3">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I3">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J3">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N3">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q3">
-        <v>25.18917494498207</v>
+        <v>25.88296646604667</v>
       </c>
       <c r="R3">
-        <v>25.18917494498207</v>
+        <v>232.94669819442</v>
       </c>
       <c r="S3">
-        <v>0.1352392881940354</v>
+        <v>0.1180270990910689</v>
       </c>
       <c r="T3">
-        <v>0.1352392881940354</v>
+        <v>0.1180270990910689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H4">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I4">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J4">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N4">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q4">
-        <v>28.50941560100789</v>
+        <v>29.57773374977</v>
       </c>
       <c r="R4">
-        <v>28.50941560100789</v>
+        <v>266.19960374793</v>
       </c>
       <c r="S4">
-        <v>0.153065476782371</v>
+        <v>0.1348753481079081</v>
       </c>
       <c r="T4">
-        <v>0.153065476782371</v>
+        <v>0.1348753481079081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H5">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I5">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J5">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N5">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q5">
-        <v>58.77745805892416</v>
+        <v>71.90275247412001</v>
       </c>
       <c r="R5">
-        <v>58.77745805892416</v>
+        <v>647.1247722670801</v>
       </c>
       <c r="S5">
-        <v>0.3155729239685635</v>
+        <v>0.3278786959105376</v>
       </c>
       <c r="T5">
-        <v>0.3155729239685635</v>
+        <v>0.3278786959105377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.22547689780612</v>
+        <v>4.273823333333334</v>
       </c>
       <c r="H6">
-        <v>4.22547689780612</v>
+        <v>12.82147</v>
       </c>
       <c r="I6">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494165</v>
       </c>
       <c r="J6">
-        <v>0.7781758108439316</v>
+        <v>0.7470073608494168</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N6">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q6">
-        <v>19.36655950960593</v>
+        <v>22.80773261272333</v>
       </c>
       <c r="R6">
-        <v>19.36655950960593</v>
+        <v>205.26959351451</v>
       </c>
       <c r="S6">
-        <v>0.1039779877096882</v>
+        <v>0.1040039409955494</v>
       </c>
       <c r="T6">
-        <v>0.1039779877096882</v>
+        <v>0.1040039409955494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H7">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I7">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J7">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N7">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q7">
-        <v>2.557341880649046</v>
+        <v>2.659853645148</v>
       </c>
       <c r="R7">
-        <v>2.557341880649046</v>
+        <v>23.938682806332</v>
       </c>
       <c r="S7">
-        <v>0.01373022722511481</v>
+        <v>0.0121290119567803</v>
       </c>
       <c r="T7">
-        <v>0.01373022722511481</v>
+        <v>0.01212901195678031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H8">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I8">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J8">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N8">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q8">
-        <v>4.91826558062127</v>
+        <v>5.045376449876001</v>
       </c>
       <c r="R8">
-        <v>4.91826558062127</v>
+        <v>45.408388048884</v>
       </c>
       <c r="S8">
-        <v>0.02640589609327191</v>
+        <v>0.02300706709883608</v>
       </c>
       <c r="T8">
-        <v>0.02640589609327191</v>
+        <v>0.02300706709883609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H9">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I9">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J9">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N9">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q9">
-        <v>5.566553004626963</v>
+        <v>5.765598834954001</v>
       </c>
       <c r="R9">
-        <v>5.566553004626963</v>
+        <v>51.890389514586</v>
       </c>
       <c r="S9">
-        <v>0.0298865154450042</v>
+        <v>0.02629130265671612</v>
       </c>
       <c r="T9">
-        <v>0.0298865154450042</v>
+        <v>0.02629130265671612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H10">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I10">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J10">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N10">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q10">
-        <v>11.47648343064151</v>
+        <v>14.016030754824</v>
       </c>
       <c r="R10">
-        <v>11.47648343064151</v>
+        <v>126.144276793416</v>
       </c>
       <c r="S10">
-        <v>0.0616166052886058</v>
+        <v>0.06391351829525251</v>
       </c>
       <c r="T10">
-        <v>0.0616166052886058</v>
+        <v>0.06391351829525252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.825037645479935</v>
+        <v>0.833098</v>
       </c>
       <c r="H11">
-        <v>0.825037645479935</v>
+        <v>2.499294</v>
       </c>
       <c r="I11">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="J11">
-        <v>0.1519412729676637</v>
+        <v>0.145614427591125</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N11">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O11">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P11">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q11">
-        <v>3.781381615681823</v>
+        <v>4.445919950878</v>
       </c>
       <c r="R11">
-        <v>3.781381615681823</v>
+        <v>40.013279557902</v>
       </c>
       <c r="S11">
-        <v>0.02030202891566702</v>
+        <v>0.02027352758353999</v>
       </c>
       <c r="T11">
-        <v>0.02030202891566702</v>
+        <v>0.02027352758353999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H12">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I12">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J12">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N12">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O12">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P12">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q12">
-        <v>0.160346084771607</v>
+        <v>0.473894191696</v>
       </c>
       <c r="R12">
-        <v>0.160346084771607</v>
+        <v>4.265047725264</v>
       </c>
       <c r="S12">
-        <v>0.0008608892675753348</v>
+        <v>0.002160971648877958</v>
       </c>
       <c r="T12">
-        <v>0.0008608892675753348</v>
+        <v>0.002160971648877959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H13">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I13">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J13">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N13">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O13">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P13">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q13">
-        <v>0.3083766920985256</v>
+        <v>0.8989120882186667</v>
       </c>
       <c r="R13">
-        <v>0.3083766920985256</v>
+        <v>8.090208793968001</v>
       </c>
       <c r="S13">
-        <v>0.001655657417367844</v>
+        <v>0.004099065933942354</v>
       </c>
       <c r="T13">
-        <v>0.001655657417367844</v>
+        <v>0.004099065933942355</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H14">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I14">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J14">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N14">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O14">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P14">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q14">
-        <v>0.3490245034187708</v>
+        <v>1.027230879608</v>
       </c>
       <c r="R14">
-        <v>0.3490245034187708</v>
+        <v>9.245077916472001</v>
       </c>
       <c r="S14">
-        <v>0.001873893269935556</v>
+        <v>0.004684203450015807</v>
       </c>
       <c r="T14">
-        <v>0.001873893269935556</v>
+        <v>0.004684203450015808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H15">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I15">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J15">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N15">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O15">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P15">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q15">
-        <v>0.7195788717082078</v>
+        <v>2.497173322848</v>
       </c>
       <c r="R15">
-        <v>0.7195788717082078</v>
+        <v>22.474559905632</v>
       </c>
       <c r="S15">
-        <v>0.003863379194508763</v>
+        <v>0.01138718483485992</v>
       </c>
       <c r="T15">
-        <v>0.003863379194508763</v>
+        <v>0.01138718483485993</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.051730101963652</v>
+        <v>0.1484293333333333</v>
       </c>
       <c r="H16">
-        <v>0.051730101963652</v>
+        <v>0.445288</v>
       </c>
       <c r="I16">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901726</v>
       </c>
       <c r="J16">
-        <v>0.009526762307351564</v>
+        <v>0.02594346932901727</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N16">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O16">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P16">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q16">
-        <v>0.2370937345882081</v>
+        <v>0.7921096129893334</v>
       </c>
       <c r="R16">
-        <v>0.2370937345882081</v>
+        <v>7.128986516904001</v>
       </c>
       <c r="S16">
-        <v>0.001272943157964066</v>
+        <v>0.00361204346132122</v>
       </c>
       <c r="T16">
-        <v>0.001272943157964066</v>
+        <v>0.00361204346132122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H17">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I17">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J17">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N17">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O17">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P17">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q17">
-        <v>1.015861701433582</v>
+        <v>0.228768396078</v>
       </c>
       <c r="R17">
-        <v>1.015861701433582</v>
+        <v>2.058915564702</v>
       </c>
       <c r="S17">
-        <v>0.005454105333165257</v>
+        <v>0.00104319070954339</v>
       </c>
       <c r="T17">
-        <v>0.005454105333165257</v>
+        <v>0.00104319070954339</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H18">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I18">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J18">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N18">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O18">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P18">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q18">
-        <v>1.953699534128815</v>
+        <v>0.4339421757860001</v>
       </c>
       <c r="R18">
-        <v>1.953699534128815</v>
+        <v>3.905479582074001</v>
       </c>
       <c r="S18">
-        <v>0.01048930482708145</v>
+        <v>0.001978789264687831</v>
       </c>
       <c r="T18">
-        <v>0.01048930482708145</v>
+        <v>0.001978789264687831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H19">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I19">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J19">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N19">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O19">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P19">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q19">
-        <v>2.211220974868398</v>
+        <v>0.4958869824690001</v>
       </c>
       <c r="R19">
-        <v>2.211220974868398</v>
+        <v>4.462982842221001</v>
       </c>
       <c r="S19">
-        <v>0.01187192321043035</v>
+        <v>0.002261259430777268</v>
       </c>
       <c r="T19">
-        <v>0.01187192321043035</v>
+        <v>0.002261259430777268</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.32773253847127</v>
+        <v>0.07165300000000001</v>
       </c>
       <c r="H20">
-        <v>0.32773253847127</v>
+        <v>0.214959</v>
       </c>
       <c r="I20">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="J20">
-        <v>0.06035615388105298</v>
+        <v>0.01252398947085083</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N20">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O20">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P20">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q20">
-        <v>4.558842942566169</v>
+        <v>1.205489212164</v>
       </c>
       <c r="R20">
-        <v>4.558842942566169</v>
+        <v>10.849402909476</v>
       </c>
       <c r="S20">
-        <v>0.02447617581312921</v>
+        <v>0.005497066763345644</v>
       </c>
       <c r="T20">
-        <v>0.02447617581312921</v>
+        <v>0.005497066763345644</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.07165300000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.214959</v>
+      </c>
+      <c r="I21">
+        <v>0.01252398947085083</v>
+      </c>
+      <c r="J21">
+        <v>0.01252398947085083</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.336611</v>
+      </c>
+      <c r="N21">
+        <v>16.009833</v>
+      </c>
+      <c r="O21">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="P21">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="Q21">
+        <v>0.3823841879830001</v>
+      </c>
+      <c r="R21">
+        <v>3.441457691847</v>
+      </c>
+      <c r="S21">
+        <v>0.001743683302496695</v>
+      </c>
+      <c r="T21">
+        <v>0.001743683302496695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.182769</v>
+      </c>
+      <c r="I22">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J22">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.192726</v>
+      </c>
+      <c r="N22">
+        <v>9.578177999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="P22">
+        <v>0.08329539975831042</v>
+      </c>
+      <c r="Q22">
+        <v>1.258752446098</v>
+      </c>
+      <c r="R22">
+        <v>11.328772014882</v>
+      </c>
+      <c r="S22">
+        <v>0.005739948698756162</v>
+      </c>
+      <c r="T22">
+        <v>0.005739948698756163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.182769</v>
+      </c>
+      <c r="I23">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J23">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.056162</v>
+      </c>
+      <c r="N23">
+        <v>18.168486</v>
+      </c>
+      <c r="O23">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="P23">
+        <v>0.1579999144276987</v>
+      </c>
+      <c r="Q23">
+        <v>2.387680224192667</v>
+      </c>
+      <c r="R23">
+        <v>21.489122017734</v>
+      </c>
+      <c r="S23">
+        <v>0.01088789303916356</v>
+      </c>
+      <c r="T23">
+        <v>0.01088789303916356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.182769</v>
+      </c>
+      <c r="I24">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J24">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.920673000000001</v>
+      </c>
+      <c r="N24">
+        <v>20.762019</v>
+      </c>
+      <c r="O24">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="P24">
+        <v>0.1805542424033711</v>
+      </c>
+      <c r="Q24">
+        <v>2.728519161179</v>
+      </c>
+      <c r="R24">
+        <v>24.556672450611</v>
+      </c>
+      <c r="S24">
+        <v>0.01244212875795383</v>
+      </c>
+      <c r="T24">
+        <v>0.01244212875795384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.32773253847127</v>
-      </c>
-      <c r="H21">
-        <v>0.32773253847127</v>
-      </c>
-      <c r="I21">
-        <v>0.06035615388105298</v>
-      </c>
-      <c r="J21">
-        <v>0.06035615388105298</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.58328372820145</v>
-      </c>
-      <c r="N21">
-        <v>4.58328372820145</v>
-      </c>
-      <c r="O21">
-        <v>0.1336176044805661</v>
-      </c>
-      <c r="P21">
-        <v>0.1336176044805661</v>
-      </c>
-      <c r="Q21">
-        <v>1.502091210777527</v>
-      </c>
-      <c r="R21">
-        <v>1.502091210777527</v>
-      </c>
-      <c r="S21">
-        <v>0.00806464469724672</v>
-      </c>
-      <c r="T21">
-        <v>0.00806464469724672</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.182769</v>
+      </c>
+      <c r="I25">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J25">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.823988</v>
+      </c>
+      <c r="N25">
+        <v>50.471964</v>
+      </c>
+      <c r="O25">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="P25">
+        <v>0.4389229786674514</v>
+      </c>
+      <c r="Q25">
+        <v>6.632963820924</v>
+      </c>
+      <c r="R25">
+        <v>59.696674388316</v>
+      </c>
+      <c r="S25">
+        <v>0.03024651286345565</v>
+      </c>
+      <c r="T25">
+        <v>0.03024651286345565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3942563333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.182769</v>
+      </c>
+      <c r="I26">
+        <v>0.06891075275959024</v>
+      </c>
+      <c r="J26">
+        <v>0.06891075275959026</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.336611</v>
+      </c>
+      <c r="N26">
+        <v>16.009833</v>
+      </c>
+      <c r="O26">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="P26">
+        <v>0.1392274647431683</v>
+      </c>
+      <c r="Q26">
+        <v>2.103992685286333</v>
+      </c>
+      <c r="R26">
+        <v>18.935934167577</v>
+      </c>
+      <c r="S26">
+        <v>0.00959426940026104</v>
+      </c>
+      <c r="T26">
+        <v>0.00959426940026104</v>
       </c>
     </row>
   </sheetData>
